--- a/output/sites/test_differences_nut_scenarios_PS.xlsx
+++ b/output/sites/test_differences_nut_scenarios_PS.xlsx
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.139</v>
+        <v>0.126</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -507,13 +507,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.195</v>
+        <v>0.172</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -533,19 +533,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.003</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.007</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I5" t="n">
         <v>0.004</v>
@@ -562,22 +562,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.058</v>
       </c>
       <c r="E6" t="n">
-        <v>0.379</v>
+        <v>0.334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.091</v>
+        <v>0.079</v>
       </c>
       <c r="G6" t="n">
-        <v>0.104</v>
+        <v>0.078</v>
       </c>
       <c r="H6" t="n">
-        <v>0.076</v>
+        <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>0.097</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="7">
@@ -591,22 +591,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.511</v>
+        <v>0.525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.481</v>
+        <v>0.516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.509</v>
+        <v>0.507</v>
       </c>
       <c r="G7" t="n">
-        <v>0.516</v>
+        <v>0.517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.515</v>
+        <v>0.503</v>
       </c>
       <c r="I7" t="n">
-        <v>0.512</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="8">
@@ -620,22 +620,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.957</v>
+        <v>0.965</v>
       </c>
       <c r="E8" t="n">
-        <v>0.662</v>
+        <v>0.666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.944</v>
+        <v>0.958</v>
       </c>
       <c r="G8" t="n">
         <v>0.954</v>
       </c>
       <c r="H8" t="n">
-        <v>0.958</v>
+        <v>0.965</v>
       </c>
       <c r="I8" t="n">
-        <v>0.945</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="9">
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.82</v>
+        <v>0.833</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.934</v>
+        <v>0.945</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.995</v>
+        <v>0.997</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -771,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.988</v>
+        <v>0.991</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.445</v>
+        <v>0.457</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -794,19 +794,19 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.973</v>
+        <v>0.977</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -823,22 +823,22 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>0.994</v>
+        <v>0.998</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.93</v>
+        <v>0.947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="I15" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -852,22 +852,22 @@
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>0.978</v>
+        <v>0.973</v>
       </c>
       <c r="E16" t="n">
-        <v>0.995</v>
+        <v>0.999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.873</v>
+        <v>0.865</v>
       </c>
       <c r="G16" t="n">
-        <v>0.989</v>
+        <v>0.981</v>
       </c>
       <c r="H16" t="n">
-        <v>0.473</v>
+        <v>0.486</v>
       </c>
       <c r="I16" t="n">
-        <v>0.987</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="17">
@@ -881,22 +881,22 @@
         <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.854</v>
+        <v>0.859</v>
       </c>
       <c r="E17" t="n">
-        <v>0.916</v>
+        <v>0.924</v>
       </c>
       <c r="F17" t="n">
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="G17" t="n">
         <v>0.873</v>
       </c>
       <c r="H17" t="n">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
       <c r="I17" t="n">
-        <v>0.887</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="18">
@@ -913,19 +913,19 @@
         <v>0.496</v>
       </c>
       <c r="E18" t="n">
-        <v>0.474</v>
+        <v>0.504</v>
       </c>
       <c r="F18" t="n">
-        <v>0.496</v>
+        <v>0.506</v>
       </c>
       <c r="G18" t="n">
-        <v>0.515</v>
+        <v>0.502</v>
       </c>
       <c r="H18" t="n">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
       <c r="I18" t="n">
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="19">
@@ -939,22 +939,22 @@
         <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117</v>
+        <v>0.084</v>
       </c>
       <c r="E19" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.248</v>
+        <v>0.237</v>
       </c>
       <c r="G19" t="n">
-        <v>0.085</v>
+        <v>0.079</v>
       </c>
       <c r="H19" t="n">
-        <v>0.511</v>
+        <v>0.503</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="20">
@@ -968,22 +968,22 @@
         <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.062</v>
+        <v>0.048</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.529</v>
+        <v>0.514</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.546</v>
+        <v>0.57</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.586</v>
+        <v>0.608</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.632</v>
+        <v>0.645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1084,22 +1084,22 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="F24" t="n">
-        <v>0.096</v>
+        <v>0.093</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.62</v>
+        <v>0.627</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1113,22 +1113,22 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.005</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.006</v>
-      </c>
       <c r="H25" t="n">
-        <v>0.616</v>
+        <v>0.615</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="26">
@@ -1145,19 +1145,19 @@
         <v>0.013</v>
       </c>
       <c r="E26" t="n">
-        <v>0.109</v>
+        <v>0.094</v>
       </c>
       <c r="F26" t="n">
-        <v>0.197</v>
+        <v>0.184</v>
       </c>
       <c r="G26" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="H26" t="n">
-        <v>0.607</v>
+        <v>0.597</v>
       </c>
       <c r="I26" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="27">
@@ -1171,22 +1171,22 @@
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
       <c r="E27" t="n">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="F27" t="n">
-        <v>0.255</v>
+        <v>0.23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.089</v>
+        <v>0.073</v>
       </c>
       <c r="H27" t="n">
-        <v>0.549</v>
+        <v>0.548</v>
       </c>
       <c r="I27" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
@@ -1200,22 +1200,22 @@
         <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="E28" t="n">
-        <v>0.309</v>
+        <v>0.289</v>
       </c>
       <c r="F28" t="n">
-        <v>0.362</v>
+        <v>0.335</v>
       </c>
       <c r="G28" t="n">
-        <v>0.214</v>
+        <v>0.196</v>
       </c>
       <c r="H28" t="n">
-        <v>0.548</v>
+        <v>0.534</v>
       </c>
       <c r="I28" t="n">
-        <v>0.205</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="29">
@@ -1229,22 +1229,22 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.487</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.505</v>
-      </c>
       <c r="H29" t="n">
-        <v>0.494</v>
+        <v>0.474</v>
       </c>
       <c r="I29" t="n">
-        <v>0.488</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="30">
@@ -1258,22 +1258,22 @@
         <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>0.87</v>
+        <v>0.879</v>
       </c>
       <c r="E30" t="n">
-        <v>0.741</v>
+        <v>0.746</v>
       </c>
       <c r="F30" t="n">
-        <v>0.699</v>
+        <v>0.693</v>
       </c>
       <c r="G30" t="n">
-        <v>0.85</v>
+        <v>0.866</v>
       </c>
       <c r="H30" t="n">
-        <v>0.427</v>
+        <v>0.486</v>
       </c>
       <c r="I30" t="n">
-        <v>0.865</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="31">
@@ -1293,16 +1293,16 @@
         <v>0.945</v>
       </c>
       <c r="F31" t="n">
-        <v>0.873</v>
+        <v>0.903</v>
       </c>
       <c r="G31" t="n">
-        <v>0.993</v>
+        <v>0.995</v>
       </c>
       <c r="H31" t="n">
-        <v>0.373</v>
+        <v>0.35</v>
       </c>
       <c r="I31" t="n">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="32">
@@ -1319,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="F32" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.171</v>
+        <v>0.145</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.062</v>
+        <v>0.051</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1461,10 +1461,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.143</v>
+        <v>0.152</v>
       </c>
       <c r="F37" t="n">
         <v>0.999</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="38">
@@ -1493,19 +1493,19 @@
         <v>0.994</v>
       </c>
       <c r="E38" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="F38" t="n">
-        <v>0.988</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="n">
-        <v>0.962</v>
+        <v>0.968</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I38" t="n">
-        <v>0.969</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="39">
@@ -1522,19 +1522,19 @@
         <v>0.911</v>
       </c>
       <c r="E39" t="n">
-        <v>0.328</v>
+        <v>0.339</v>
       </c>
       <c r="F39" t="n">
-        <v>0.886</v>
+        <v>0.866</v>
       </c>
       <c r="G39" t="n">
         <v>0.846</v>
       </c>
       <c r="H39" t="n">
-        <v>0.932</v>
+        <v>0.94</v>
       </c>
       <c r="I39" t="n">
-        <v>0.854</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="40">
@@ -1548,22 +1548,22 @@
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
       <c r="E40" t="n">
-        <v>0.487</v>
+        <v>0.478</v>
       </c>
       <c r="F40" t="n">
-        <v>0.48</v>
+        <v>0.499</v>
       </c>
       <c r="G40" t="n">
-        <v>0.505</v>
+        <v>0.476</v>
       </c>
       <c r="H40" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="I40" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -1577,22 +1577,22 @@
         <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
       <c r="E41" t="n">
-        <v>0.704</v>
+        <v>0.691</v>
       </c>
       <c r="F41" t="n">
-        <v>0.087</v>
+        <v>0.069</v>
       </c>
       <c r="G41" t="n">
-        <v>0.115</v>
+        <v>0.106</v>
       </c>
       <c r="H41" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="I41" t="n">
-        <v>0.097</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="42">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.897</v>
+        <v>0.913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G42" t="n">
         <v>0.002</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
